--- a/data/apps-master/1985.xlsx
+++ b/data/apps-master/1985.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisowen/Desktop/tranmere-web/data/apps-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93A5D7B5-EE40-F642-BEBA-9B4F6C7CEA63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C344C91-6297-234E-A2C2-818363C5C47A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3625" uniqueCount="132">
   <si>
     <t>Date</t>
   </si>
@@ -372,19 +372,10 @@
     <t>Ian Muir</t>
   </si>
   <si>
-    <t>Sinclair</t>
-  </si>
-  <si>
     <t>John Morrissey</t>
   </si>
   <si>
-    <t>Miller</t>
-  </si>
-  <si>
     <t>Gary Williams</t>
-  </si>
-  <si>
-    <t>Ashcroft</t>
   </si>
   <si>
     <t>?</t>
@@ -414,13 +405,37 @@
     <t>Nigel Adkins</t>
   </si>
   <si>
-    <t>Sidall</t>
+    <t>Billy Ashcroft</t>
+  </si>
+  <si>
+    <t>Barry Sidall</t>
+  </si>
+  <si>
+    <t>Nick Sinclair</t>
+  </si>
+  <si>
+    <t>Dave Miller</t>
+  </si>
+  <si>
+    <t>Dave Burgess</t>
+  </si>
+  <si>
+    <t>Steve Vickers</t>
+  </si>
+  <si>
+    <t>Mike Hollifield</t>
+  </si>
+  <si>
+    <t>Don McVicar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -449,8 +464,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E29"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -825,7 +841,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -845,7 +861,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -865,7 +881,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -885,7 +901,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -905,7 +921,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -925,7 +941,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -945,7 +961,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -965,7 +981,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -985,7 +1001,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1005,7 +1021,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1025,7 +1041,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1045,7 +1061,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1065,7 +1081,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1085,7 +1101,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1105,7 +1121,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1125,7 +1141,7 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1145,7 +1161,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1165,7 +1181,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1185,7 +1201,7 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1205,7 +1221,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1225,7 +1241,7 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1245,7 +1261,7 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1265,7 +1281,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1285,7 +1301,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1305,7 +1321,7 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1325,7 +1341,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1345,7 +1361,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1365,7 +1381,7 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1385,7 +1401,7 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1405,7 +1421,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1425,7 +1441,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1445,7 +1461,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1465,7 +1481,7 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1485,7 +1501,7 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1505,7 +1521,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1525,7 +1541,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1545,7 +1561,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1565,7 +1581,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1585,7 +1601,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1605,7 +1621,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1625,7 +1641,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1645,7 +1661,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1665,7 +1681,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1685,7 +1701,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1705,7 +1721,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -1725,7 +1741,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1745,7 +1761,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -1765,7 +1781,7 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -1785,7 +1801,7 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1805,7 +1821,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1825,7 +1841,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -1845,7 +1861,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -1865,7 +1881,7 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -1885,7 +1901,7 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -1905,7 +1921,7 @@
         <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -1920,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2058,7 +2074,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -2078,7 +2094,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -2098,7 +2114,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -2118,7 +2134,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -2458,7 +2474,7 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F26">
         <v>10</v>
@@ -2478,7 +2494,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F27">
         <v>10</v>
@@ -2498,7 +2514,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F28">
         <v>10</v>
@@ -2518,7 +2534,7 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F29">
         <v>10</v>
@@ -2538,13 +2554,13 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F30">
         <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2561,7 +2577,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F31">
         <v>10</v>
@@ -2581,7 +2597,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F32">
         <v>10</v>
@@ -2601,7 +2617,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F33">
         <v>10</v>
@@ -2621,7 +2637,7 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F34">
         <v>10</v>
@@ -2827,7 +2843,7 @@
         <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2964,7 +2980,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F51">
         <v>10</v>
@@ -2984,7 +3000,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F52">
         <v>10</v>
@@ -3004,7 +3020,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F53">
         <v>10</v>
@@ -3024,7 +3040,7 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F54">
         <v>10</v>
@@ -3044,7 +3060,7 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F55">
         <v>10</v>
@@ -3064,7 +3080,7 @@
         <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F56">
         <v>10</v>
@@ -3079,8 +3095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4235,8 +4251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4554,7 +4570,7 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -4639,7 +4655,7 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -4673,7 +4689,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -4724,7 +4740,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -4741,7 +4757,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -4775,7 +4791,7 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -4894,7 +4910,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -4911,7 +4927,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -4996,7 +5012,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -5030,7 +5046,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -5047,7 +5063,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -5064,7 +5080,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -5098,7 +5114,7 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -5132,7 +5148,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -5149,7 +5165,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -5183,7 +5199,7 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -5200,7 +5216,7 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -5234,7 +5250,7 @@
         <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -5251,7 +5267,7 @@
         <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -5268,7 +5284,7 @@
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -5285,7 +5301,7 @@
         <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -5302,7 +5318,7 @@
         <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -5319,7 +5335,7 @@
         <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -5404,7 +5420,7 @@
         <v>15</v>
       </c>
       <c r="E67" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -5421,7 +5437,7 @@
         <v>15</v>
       </c>
       <c r="E68" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -5472,7 +5488,7 @@
         <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -5506,7 +5522,7 @@
         <v>15</v>
       </c>
       <c r="E73" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -5574,7 +5590,7 @@
         <v>15</v>
       </c>
       <c r="E77" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -5642,7 +5658,7 @@
         <v>15</v>
       </c>
       <c r="E81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -5659,7 +5675,7 @@
         <v>15</v>
       </c>
       <c r="E82" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -5710,7 +5726,7 @@
         <v>15</v>
       </c>
       <c r="E85" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -5727,7 +5743,7 @@
         <v>15</v>
       </c>
       <c r="E86" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -5739,8 +5755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5797,7 +5813,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -5817,7 +5833,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -5837,7 +5853,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -5857,7 +5873,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -5877,7 +5893,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -5897,7 +5913,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -5917,7 +5933,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -5937,7 +5953,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -5957,7 +5973,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -5977,7 +5993,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -5997,7 +6013,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -6017,7 +6033,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -6037,7 +6053,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -6057,7 +6073,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -6077,7 +6093,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -6097,13 +6113,13 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -6120,7 +6136,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -6140,7 +6156,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -6160,7 +6176,7 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -6180,7 +6196,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -6200,7 +6216,7 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -6220,7 +6236,7 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -6240,7 +6256,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -6260,7 +6276,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -6280,13 +6296,13 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -6303,7 +6319,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -6323,7 +6339,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -6343,7 +6359,7 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -6363,7 +6379,7 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -6383,7 +6399,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -6403,7 +6419,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -6423,7 +6439,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -6443,7 +6459,7 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -6463,7 +6479,7 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -6483,7 +6499,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -6503,7 +6519,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -6523,7 +6539,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -6543,7 +6559,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -6563,7 +6579,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -6583,7 +6599,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -6603,7 +6619,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -6623,7 +6639,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -6643,7 +6659,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -6663,7 +6679,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -6683,7 +6699,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -6703,7 +6719,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -6723,7 +6739,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -6743,7 +6759,7 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -6763,7 +6779,7 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -6783,7 +6799,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -6803,7 +6819,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -6823,7 +6839,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F53">
         <v>2</v>
@@ -6843,7 +6859,7 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -6863,7 +6879,7 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -6883,7 +6899,7 @@
         <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -6898,12 +6914,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -6941,7 +6962,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
@@ -6953,12 +6974,15 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
+      <c r="E2" t="s">
+        <v>128</v>
+      </c>
       <c r="F2">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
@@ -6970,12 +6994,15 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
       <c r="F3">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
@@ -6987,12 +7014,15 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
+      <c r="E4" t="s">
+        <v>128</v>
+      </c>
       <c r="F4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
@@ -7004,12 +7034,15 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
+      <c r="E5" t="s">
+        <v>128</v>
+      </c>
       <c r="F5">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B6" t="s">
@@ -7021,12 +7054,15 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
+      <c r="E6" t="s">
+        <v>128</v>
+      </c>
       <c r="F6">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B7" t="s">
@@ -7038,12 +7074,15 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
+      <c r="E7" t="s">
+        <v>128</v>
+      </c>
       <c r="F7">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B8" t="s">
@@ -7055,12 +7094,15 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
+      <c r="E8" t="s">
+        <v>128</v>
+      </c>
       <c r="F8">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B9" t="s">
@@ -7072,12 +7114,15 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
+      <c r="E9" t="s">
+        <v>128</v>
+      </c>
       <c r="F9">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B10" t="s">
@@ -7089,12 +7134,15 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
+      <c r="E10" t="s">
+        <v>128</v>
+      </c>
       <c r="F10">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B11" t="s">
@@ -7106,12 +7154,15 @@
       <c r="D11" t="s">
         <v>15</v>
       </c>
+      <c r="E11" t="s">
+        <v>128</v>
+      </c>
       <c r="F11">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B12" t="s">
@@ -7123,12 +7174,15 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
+      <c r="E12" t="s">
+        <v>128</v>
+      </c>
       <c r="F12">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B13" t="s">
@@ -7140,12 +7194,15 @@
       <c r="D13" t="s">
         <v>15</v>
       </c>
+      <c r="E13" t="s">
+        <v>128</v>
+      </c>
       <c r="F13">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B14" t="s">
@@ -7157,12 +7214,15 @@
       <c r="D14" t="s">
         <v>15</v>
       </c>
+      <c r="E14" t="s">
+        <v>128</v>
+      </c>
       <c r="F14">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B15" t="s">
@@ -7174,12 +7234,15 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
+      <c r="E15" t="s">
+        <v>128</v>
+      </c>
       <c r="F15">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B16" t="s">
@@ -7191,12 +7254,15 @@
       <c r="D16" t="s">
         <v>15</v>
       </c>
+      <c r="E16" t="s">
+        <v>128</v>
+      </c>
       <c r="F16">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B17" t="s">
@@ -7208,12 +7274,15 @@
       <c r="D17" t="s">
         <v>15</v>
       </c>
+      <c r="E17" t="s">
+        <v>128</v>
+      </c>
       <c r="F17">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B18" t="s">
@@ -7225,12 +7294,15 @@
       <c r="D18" t="s">
         <v>15</v>
       </c>
+      <c r="E18" t="s">
+        <v>128</v>
+      </c>
       <c r="F18">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B19" t="s">
@@ -7242,12 +7314,15 @@
       <c r="D19" t="s">
         <v>15</v>
       </c>
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
       <c r="F19">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B20" t="s">
@@ -7259,12 +7334,15 @@
       <c r="D20" t="s">
         <v>15</v>
       </c>
+      <c r="E20" t="s">
+        <v>128</v>
+      </c>
       <c r="F20">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B21" t="s">
@@ -7276,12 +7354,15 @@
       <c r="D21" t="s">
         <v>15</v>
       </c>
+      <c r="E21" t="s">
+        <v>128</v>
+      </c>
       <c r="F21">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B22" t="s">
@@ -7293,12 +7374,15 @@
       <c r="D22" t="s">
         <v>15</v>
       </c>
+      <c r="E22" t="s">
+        <v>128</v>
+      </c>
       <c r="F22">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B23" t="s">
@@ -7310,12 +7394,15 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
+      <c r="E23" t="s">
+        <v>128</v>
+      </c>
       <c r="F23">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B24" t="s">
@@ -7327,12 +7414,15 @@
       <c r="D24" t="s">
         <v>15</v>
       </c>
+      <c r="E24" t="s">
+        <v>128</v>
+      </c>
       <c r="F24">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B25" t="s">
@@ -7344,12 +7434,15 @@
       <c r="D25" t="s">
         <v>15</v>
       </c>
+      <c r="E25" t="s">
+        <v>128</v>
+      </c>
       <c r="F25">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B26" t="s">
@@ -7361,12 +7454,15 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
+      <c r="E26" t="s">
+        <v>128</v>
+      </c>
       <c r="F26">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B27" t="s">
@@ -7378,12 +7474,15 @@
       <c r="D27" t="s">
         <v>15</v>
       </c>
+      <c r="E27" t="s">
+        <v>128</v>
+      </c>
       <c r="F27">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B28" t="s">
@@ -7395,12 +7494,15 @@
       <c r="D28" t="s">
         <v>15</v>
       </c>
+      <c r="E28" t="s">
+        <v>128</v>
+      </c>
       <c r="F28">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B29" t="s">
@@ -7412,12 +7514,15 @@
       <c r="D29" t="s">
         <v>15</v>
       </c>
+      <c r="E29" t="s">
+        <v>128</v>
+      </c>
       <c r="F29">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B30" t="s">
@@ -7429,12 +7534,15 @@
       <c r="D30" t="s">
         <v>15</v>
       </c>
+      <c r="E30" t="s">
+        <v>128</v>
+      </c>
       <c r="F30">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B31" t="s">
@@ -7446,12 +7554,15 @@
       <c r="D31" t="s">
         <v>15</v>
       </c>
+      <c r="E31" t="s">
+        <v>128</v>
+      </c>
       <c r="F31">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B32" t="s">
@@ -7463,12 +7574,15 @@
       <c r="D32" t="s">
         <v>15</v>
       </c>
+      <c r="E32" t="s">
+        <v>116</v>
+      </c>
       <c r="F32">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B33" t="s">
@@ -7480,46 +7594,55 @@
       <c r="D33" t="s">
         <v>15</v>
       </c>
+      <c r="E33" t="s">
+        <v>116</v>
+      </c>
       <c r="F33">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>72</v>
+      <c r="A34" s="1">
+        <v>31432</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>128</v>
       </c>
       <c r="F34">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>73</v>
+      <c r="A35" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>128</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B36" t="s">
@@ -7531,12 +7654,15 @@
       <c r="D36" t="s">
         <v>15</v>
       </c>
+      <c r="E36" t="s">
+        <v>128</v>
+      </c>
       <c r="F36">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B37" t="s">
@@ -7548,12 +7674,15 @@
       <c r="D37" t="s">
         <v>15</v>
       </c>
+      <c r="E37" t="s">
+        <v>114</v>
+      </c>
       <c r="F37">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B38" t="s">
@@ -7565,12 +7694,15 @@
       <c r="D38" t="s">
         <v>15</v>
       </c>
+      <c r="E38" t="s">
+        <v>114</v>
+      </c>
       <c r="F38">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B39" t="s">
@@ -7582,12 +7714,15 @@
       <c r="D39" t="s">
         <v>15</v>
       </c>
+      <c r="E39" t="s">
+        <v>128</v>
+      </c>
       <c r="F39">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B40" t="s">
@@ -7599,12 +7734,15 @@
       <c r="D40" t="s">
         <v>15</v>
       </c>
+      <c r="E40" t="s">
+        <v>128</v>
+      </c>
       <c r="F40">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B41" t="s">
@@ -7616,12 +7754,15 @@
       <c r="D41" t="s">
         <v>15</v>
       </c>
+      <c r="E41" t="s">
+        <v>128</v>
+      </c>
       <c r="F41">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B42" t="s">
@@ -7633,12 +7774,15 @@
       <c r="D42" t="s">
         <v>15</v>
       </c>
+      <c r="E42" t="s">
+        <v>128</v>
+      </c>
       <c r="F42">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B43" t="s">
@@ -7650,12 +7794,15 @@
       <c r="D43" t="s">
         <v>15</v>
       </c>
+      <c r="E43" t="s">
+        <v>128</v>
+      </c>
       <c r="F43">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B44" t="s">
@@ -7667,12 +7814,15 @@
       <c r="D44" t="s">
         <v>15</v>
       </c>
+      <c r="E44" t="s">
+        <v>128</v>
+      </c>
       <c r="F44">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B45" t="s">
@@ -7684,12 +7834,15 @@
       <c r="D45" t="s">
         <v>15</v>
       </c>
+      <c r="E45" t="s">
+        <v>128</v>
+      </c>
       <c r="F45">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B46" t="s">
@@ -7701,12 +7854,15 @@
       <c r="D46" t="s">
         <v>15</v>
       </c>
+      <c r="E46" t="s">
+        <v>128</v>
+      </c>
       <c r="F46">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B47" t="s">
@@ -7718,12 +7874,15 @@
       <c r="D47" t="s">
         <v>15</v>
       </c>
+      <c r="E47" t="s">
+        <v>128</v>
+      </c>
       <c r="F47">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B48" t="s">
@@ -7735,12 +7894,15 @@
       <c r="D48" t="s">
         <v>15</v>
       </c>
+      <c r="E48" t="s">
+        <v>128</v>
+      </c>
       <c r="F48">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B49" t="s">
@@ -7752,12 +7914,15 @@
       <c r="D49" t="s">
         <v>15</v>
       </c>
+      <c r="E49" t="s">
+        <v>114</v>
+      </c>
       <c r="F49">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B50" t="s">
@@ -7769,12 +7934,15 @@
       <c r="D50" t="s">
         <v>15</v>
       </c>
+      <c r="E50" t="s">
+        <v>114</v>
+      </c>
       <c r="F50">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B51" t="s">
@@ -7786,12 +7954,15 @@
       <c r="D51" t="s">
         <v>15</v>
       </c>
+      <c r="E51" t="s">
+        <v>128</v>
+      </c>
       <c r="F51">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B52" t="s">
@@ -7803,12 +7974,15 @@
       <c r="D52" t="s">
         <v>15</v>
       </c>
+      <c r="E52" t="s">
+        <v>128</v>
+      </c>
       <c r="F52">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B53" t="s">
@@ -7820,12 +7994,15 @@
       <c r="D53" t="s">
         <v>15</v>
       </c>
+      <c r="E53" t="s">
+        <v>128</v>
+      </c>
       <c r="F53">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B54" t="s">
@@ -7837,12 +8014,15 @@
       <c r="D54" t="s">
         <v>15</v>
       </c>
+      <c r="E54" t="s">
+        <v>128</v>
+      </c>
       <c r="F54">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B55" t="s">
@@ -7854,12 +8034,15 @@
       <c r="D55" t="s">
         <v>15</v>
       </c>
+      <c r="E55" t="s">
+        <v>128</v>
+      </c>
       <c r="F55">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B56" t="s">
@@ -7871,11 +8054,17 @@
       <c r="D56" t="s">
         <v>15</v>
       </c>
+      <c r="E56" t="s">
+        <v>128</v>
+      </c>
       <c r="F56">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L56">
+    <sortCondition ref="A2:A56"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7884,7 +8073,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -7939,6 +8130,9 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
+      <c r="E2" t="s">
+        <v>116</v>
+      </c>
       <c r="F2">
         <v>4</v>
       </c>
@@ -7956,6 +8150,9 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
       <c r="F3">
         <v>4</v>
       </c>
@@ -7973,6 +8170,9 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
+      <c r="E4" t="s">
+        <v>116</v>
+      </c>
       <c r="F4">
         <v>4</v>
       </c>
@@ -7990,6 +8190,9 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
+      <c r="E5" t="s">
+        <v>116</v>
+      </c>
       <c r="F5">
         <v>4</v>
       </c>
@@ -8007,6 +8210,9 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
+      <c r="E6" t="s">
+        <v>116</v>
+      </c>
       <c r="F6">
         <v>4</v>
       </c>
@@ -8024,6 +8230,9 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
+      <c r="E7" t="s">
+        <v>116</v>
+      </c>
       <c r="F7">
         <v>4</v>
       </c>
@@ -8041,6 +8250,9 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
       <c r="F8">
         <v>4</v>
       </c>
@@ -8058,6 +8270,9 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
+      <c r="E9" t="s">
+        <v>116</v>
+      </c>
       <c r="F9">
         <v>4</v>
       </c>
@@ -8075,6 +8290,9 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
+      <c r="E10" t="s">
+        <v>116</v>
+      </c>
       <c r="F10">
         <v>4</v>
       </c>
@@ -8092,6 +8310,9 @@
       <c r="D11" t="s">
         <v>15</v>
       </c>
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
       <c r="F11">
         <v>4</v>
       </c>
@@ -8109,6 +8330,9 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
+      <c r="E12" t="s">
+        <v>117</v>
+      </c>
       <c r="F12">
         <v>4</v>
       </c>
@@ -8126,6 +8350,9 @@
       <c r="D13" t="s">
         <v>15</v>
       </c>
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
       <c r="F13">
         <v>4</v>
       </c>
@@ -8143,6 +8370,9 @@
       <c r="D14" t="s">
         <v>15</v>
       </c>
+      <c r="E14" t="s">
+        <v>117</v>
+      </c>
       <c r="F14">
         <v>4</v>
       </c>
@@ -8160,6 +8390,9 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
       <c r="F15">
         <v>4</v>
       </c>
@@ -8177,11 +8410,14 @@
       <c r="D16" t="s">
         <v>15</v>
       </c>
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
       <c r="F16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -8194,11 +8430,14 @@
       <c r="D17" t="s">
         <v>15</v>
       </c>
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
       <c r="F17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -8211,11 +8450,14 @@
       <c r="D18" t="s">
         <v>15</v>
       </c>
+      <c r="E18" t="s">
+        <v>117</v>
+      </c>
       <c r="F18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -8228,11 +8470,14 @@
       <c r="D19" t="s">
         <v>15</v>
       </c>
+      <c r="E19" t="s">
+        <v>117</v>
+      </c>
       <c r="F19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -8245,11 +8490,14 @@
       <c r="D20" t="s">
         <v>15</v>
       </c>
+      <c r="E20" t="s">
+        <v>117</v>
+      </c>
       <c r="F20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -8262,11 +8510,14 @@
       <c r="D21" t="s">
         <v>15</v>
       </c>
+      <c r="E21" t="s">
+        <v>117</v>
+      </c>
       <c r="F21">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -8279,11 +8530,14 @@
       <c r="D22" t="s">
         <v>15</v>
       </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
       <c r="F22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -8296,11 +8550,14 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
       <c r="F23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -8313,11 +8570,14 @@
       <c r="D24" t="s">
         <v>15</v>
       </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
       <c r="F24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -8330,11 +8590,14 @@
       <c r="D25" t="s">
         <v>15</v>
       </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
       <c r="F25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -8347,11 +8610,14 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
+      <c r="E26" t="s">
+        <v>127</v>
+      </c>
       <c r="F26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -8364,11 +8630,14 @@
       <c r="D27" t="s">
         <v>15</v>
       </c>
+      <c r="E27" t="s">
+        <v>127</v>
+      </c>
       <c r="F27">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -8381,11 +8650,17 @@
       <c r="D28" t="s">
         <v>15</v>
       </c>
+      <c r="E28" t="s">
+        <v>116</v>
+      </c>
       <c r="F28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -8398,11 +8673,14 @@
       <c r="D29" t="s">
         <v>15</v>
       </c>
+      <c r="E29" t="s">
+        <v>122</v>
+      </c>
       <c r="F29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -8415,11 +8693,14 @@
       <c r="D30" t="s">
         <v>15</v>
       </c>
+      <c r="E30" t="s">
+        <v>122</v>
+      </c>
       <c r="F30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -8432,11 +8713,14 @@
       <c r="D31" t="s">
         <v>15</v>
       </c>
+      <c r="E31" t="s">
+        <v>122</v>
+      </c>
       <c r="F31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -8449,11 +8733,14 @@
       <c r="D32" t="s">
         <v>15</v>
       </c>
+      <c r="E32" t="s">
+        <v>122</v>
+      </c>
       <c r="F32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -8466,11 +8753,14 @@
       <c r="D33" t="s">
         <v>15</v>
       </c>
+      <c r="E33" t="s">
+        <v>117</v>
+      </c>
       <c r="F33">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -8483,11 +8773,14 @@
       <c r="D34" t="s">
         <v>15</v>
       </c>
+      <c r="E34" t="s">
+        <v>117</v>
+      </c>
       <c r="F34">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -8500,11 +8793,14 @@
       <c r="D35" t="s">
         <v>15</v>
       </c>
+      <c r="E35" t="s">
+        <v>117</v>
+      </c>
       <c r="F35">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -8517,11 +8813,17 @@
       <c r="D36" t="s">
         <v>15</v>
       </c>
+      <c r="E36" t="s">
+        <v>117</v>
+      </c>
       <c r="F36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -8534,11 +8836,14 @@
       <c r="D37" t="s">
         <v>15</v>
       </c>
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
       <c r="F37">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -8551,11 +8856,14 @@
       <c r="D38" t="s">
         <v>15</v>
       </c>
+      <c r="E38" t="s">
+        <v>117</v>
+      </c>
       <c r="F38">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -8568,11 +8876,14 @@
       <c r="D39" t="s">
         <v>15</v>
       </c>
+      <c r="E39" t="s">
+        <v>122</v>
+      </c>
       <c r="F39">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -8585,11 +8896,14 @@
       <c r="D40" t="s">
         <v>15</v>
       </c>
+      <c r="E40" t="s">
+        <v>122</v>
+      </c>
       <c r="F40">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -8602,11 +8916,14 @@
       <c r="D41" t="s">
         <v>15</v>
       </c>
+      <c r="E41" t="s">
+        <v>117</v>
+      </c>
       <c r="F41">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -8619,11 +8936,14 @@
       <c r="D42" t="s">
         <v>15</v>
       </c>
+      <c r="E42" t="s">
+        <v>117</v>
+      </c>
       <c r="F42">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -8636,11 +8956,14 @@
       <c r="D43" t="s">
         <v>15</v>
       </c>
+      <c r="E43" t="s">
+        <v>117</v>
+      </c>
       <c r="F43">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -8653,11 +8976,14 @@
       <c r="D44" t="s">
         <v>15</v>
       </c>
+      <c r="E44" t="s">
+        <v>117</v>
+      </c>
       <c r="F44">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -8670,11 +8996,14 @@
       <c r="D45" t="s">
         <v>15</v>
       </c>
+      <c r="E45" t="s">
+        <v>117</v>
+      </c>
       <c r="F45">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -8687,11 +9016,14 @@
       <c r="D46" t="s">
         <v>15</v>
       </c>
+      <c r="E46" t="s">
+        <v>117</v>
+      </c>
       <c r="F46">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -8704,11 +9036,17 @@
       <c r="D47" t="s">
         <v>15</v>
       </c>
+      <c r="E47" t="s">
+        <v>117</v>
+      </c>
       <c r="F47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -8721,11 +9059,14 @@
       <c r="D48" t="s">
         <v>15</v>
       </c>
+      <c r="E48" t="s">
+        <v>120</v>
+      </c>
       <c r="F48">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -8738,11 +9079,14 @@
       <c r="D49" t="s">
         <v>15</v>
       </c>
+      <c r="E49" t="s">
+        <v>120</v>
+      </c>
       <c r="F49">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -8755,11 +9099,14 @@
       <c r="D50" t="s">
         <v>15</v>
       </c>
+      <c r="E50" t="s">
+        <v>120</v>
+      </c>
       <c r="F50">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -8772,11 +9119,14 @@
       <c r="D51" t="s">
         <v>15</v>
       </c>
+      <c r="E51" t="s">
+        <v>129</v>
+      </c>
       <c r="F51">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>93</v>
       </c>
@@ -8789,11 +9139,14 @@
       <c r="D52" t="s">
         <v>15</v>
       </c>
+      <c r="E52" t="s">
+        <v>116</v>
+      </c>
       <c r="F52">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -8806,11 +9159,14 @@
       <c r="D53" t="s">
         <v>15</v>
       </c>
+      <c r="E53" t="s">
+        <v>117</v>
+      </c>
       <c r="F53">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -8823,11 +9179,14 @@
       <c r="D54" t="s">
         <v>15</v>
       </c>
+      <c r="E54" t="s">
+        <v>117</v>
+      </c>
       <c r="F54">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -8840,11 +9199,17 @@
       <c r="D55" t="s">
         <v>15</v>
       </c>
+      <c r="E55" t="s">
+        <v>129</v>
+      </c>
       <c r="F55">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>97</v>
       </c>
@@ -8856,6 +9221,9 @@
       </c>
       <c r="D56" t="s">
         <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>117</v>
       </c>
       <c r="F56">
         <v>4</v>
@@ -8870,7 +9238,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G8:H38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -8925,6 +9295,9 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
+      <c r="E2" t="s">
+        <v>120</v>
+      </c>
       <c r="F2">
         <v>5</v>
       </c>
@@ -8942,6 +9315,9 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
       <c r="F3">
         <v>5</v>
       </c>
@@ -8959,6 +9335,9 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
+      <c r="E4" t="s">
+        <v>120</v>
+      </c>
       <c r="F4">
         <v>5</v>
       </c>
@@ -8976,6 +9355,9 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
+      <c r="E5" t="s">
+        <v>120</v>
+      </c>
       <c r="F5">
         <v>5</v>
       </c>
@@ -8993,6 +9375,9 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
+      <c r="E6" t="s">
+        <v>120</v>
+      </c>
       <c r="F6">
         <v>5</v>
       </c>
@@ -9010,6 +9395,9 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
+      <c r="E7" t="s">
+        <v>119</v>
+      </c>
       <c r="F7">
         <v>5</v>
       </c>
@@ -9027,6 +9415,9 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
+      <c r="E8" t="s">
+        <v>119</v>
+      </c>
       <c r="F8">
         <v>5</v>
       </c>
@@ -9044,6 +9435,9 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
+      <c r="E9" t="s">
+        <v>119</v>
+      </c>
       <c r="F9">
         <v>5</v>
       </c>
@@ -9061,6 +9455,9 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
+      <c r="E10" t="s">
+        <v>124</v>
+      </c>
       <c r="F10">
         <v>5</v>
       </c>
@@ -9078,6 +9475,9 @@
       <c r="D11" t="s">
         <v>15</v>
       </c>
+      <c r="E11" t="s">
+        <v>124</v>
+      </c>
       <c r="F11">
         <v>5</v>
       </c>
@@ -9095,6 +9495,9 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
+      <c r="E12" t="s">
+        <v>124</v>
+      </c>
       <c r="F12">
         <v>5</v>
       </c>
@@ -9112,6 +9515,9 @@
       <c r="D13" t="s">
         <v>15</v>
       </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
       <c r="F13">
         <v>5</v>
       </c>
@@ -9129,6 +9535,9 @@
       <c r="D14" t="s">
         <v>15</v>
       </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
       <c r="F14">
         <v>5</v>
       </c>
@@ -9146,6 +9555,9 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
       <c r="F15">
         <v>5</v>
       </c>
@@ -9163,11 +9575,14 @@
       <c r="D16" t="s">
         <v>15</v>
       </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
       <c r="F16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -9180,11 +9595,14 @@
       <c r="D17" t="s">
         <v>15</v>
       </c>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
       <c r="F17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -9197,11 +9615,14 @@
       <c r="D18" t="s">
         <v>15</v>
       </c>
+      <c r="E18" t="s">
+        <v>127</v>
+      </c>
       <c r="F18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -9214,11 +9635,14 @@
       <c r="D19" t="s">
         <v>15</v>
       </c>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
       <c r="F19">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -9231,11 +9655,14 @@
       <c r="D20" t="s">
         <v>15</v>
       </c>
+      <c r="E20" t="s">
+        <v>127</v>
+      </c>
       <c r="F20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -9248,11 +9675,14 @@
       <c r="D21" t="s">
         <v>15</v>
       </c>
+      <c r="E21" t="s">
+        <v>124</v>
+      </c>
       <c r="F21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -9265,11 +9695,14 @@
       <c r="D22" t="s">
         <v>15</v>
       </c>
+      <c r="E22" t="s">
+        <v>124</v>
+      </c>
       <c r="F22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -9282,11 +9715,14 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
+      <c r="E23" t="s">
+        <v>124</v>
+      </c>
       <c r="F23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -9299,11 +9735,17 @@
       <c r="D24" t="s">
         <v>15</v>
       </c>
+      <c r="E24" t="s">
+        <v>124</v>
+      </c>
       <c r="F24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -9316,11 +9758,14 @@
       <c r="D25" t="s">
         <v>15</v>
       </c>
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
       <c r="F25">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -9333,11 +9778,14 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
+      <c r="E26" t="s">
+        <v>117</v>
+      </c>
       <c r="F26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -9350,11 +9798,14 @@
       <c r="D27" t="s">
         <v>15</v>
       </c>
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
       <c r="F27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -9367,11 +9818,14 @@
       <c r="D28" t="s">
         <v>15</v>
       </c>
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
       <c r="F28">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -9384,11 +9838,14 @@
       <c r="D29" t="s">
         <v>15</v>
       </c>
+      <c r="E29" t="s">
+        <v>117</v>
+      </c>
       <c r="F29">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -9401,11 +9858,14 @@
       <c r="D30" t="s">
         <v>15</v>
       </c>
+      <c r="E30" t="s">
+        <v>117</v>
+      </c>
       <c r="F30">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -9418,11 +9878,14 @@
       <c r="D31" t="s">
         <v>15</v>
       </c>
+      <c r="E31" t="s">
+        <v>124</v>
+      </c>
       <c r="F31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -9435,11 +9898,17 @@
       <c r="D32" t="s">
         <v>15</v>
       </c>
+      <c r="E32" t="s">
+        <v>124</v>
+      </c>
       <c r="F32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -9452,11 +9921,14 @@
       <c r="D33" t="s">
         <v>15</v>
       </c>
+      <c r="E33" t="s">
+        <v>124</v>
+      </c>
       <c r="F33">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -9469,11 +9941,17 @@
       <c r="D34" t="s">
         <v>15</v>
       </c>
+      <c r="E34" t="s">
+        <v>124</v>
+      </c>
       <c r="F34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -9486,11 +9964,14 @@
       <c r="D35" t="s">
         <v>15</v>
       </c>
+      <c r="E35" t="s">
+        <v>120</v>
+      </c>
       <c r="F35">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -9503,11 +9984,14 @@
       <c r="D36" t="s">
         <v>15</v>
       </c>
+      <c r="E36" t="s">
+        <v>120</v>
+      </c>
       <c r="F36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -9520,11 +10004,14 @@
       <c r="D37" t="s">
         <v>15</v>
       </c>
+      <c r="E37" t="s">
+        <v>120</v>
+      </c>
       <c r="F37">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -9537,11 +10024,14 @@
       <c r="D38" t="s">
         <v>15</v>
       </c>
+      <c r="E38" t="s">
+        <v>120</v>
+      </c>
       <c r="F38">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -9554,11 +10044,14 @@
       <c r="D39" t="s">
         <v>15</v>
       </c>
+      <c r="E39" t="s">
+        <v>124</v>
+      </c>
       <c r="F39">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -9571,11 +10064,14 @@
       <c r="D40" t="s">
         <v>15</v>
       </c>
+      <c r="E40" t="s">
+        <v>124</v>
+      </c>
       <c r="F40">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -9588,11 +10084,14 @@
       <c r="D41" t="s">
         <v>15</v>
       </c>
+      <c r="E41" t="s">
+        <v>120</v>
+      </c>
       <c r="F41">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -9605,11 +10104,14 @@
       <c r="D42" t="s">
         <v>15</v>
       </c>
+      <c r="E42" t="s">
+        <v>120</v>
+      </c>
       <c r="F42">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -9622,11 +10124,14 @@
       <c r="D43" t="s">
         <v>15</v>
       </c>
+      <c r="E43" t="s">
+        <v>120</v>
+      </c>
       <c r="F43">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -9639,11 +10144,14 @@
       <c r="D44" t="s">
         <v>15</v>
       </c>
+      <c r="E44" t="s">
+        <v>120</v>
+      </c>
       <c r="F44">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -9656,11 +10164,14 @@
       <c r="D45" t="s">
         <v>15</v>
       </c>
+      <c r="E45" t="s">
+        <v>120</v>
+      </c>
       <c r="F45">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -9673,11 +10184,14 @@
       <c r="D46" t="s">
         <v>15</v>
       </c>
+      <c r="E46" t="s">
+        <v>120</v>
+      </c>
       <c r="F46">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -9690,11 +10204,14 @@
       <c r="D47" t="s">
         <v>15</v>
       </c>
+      <c r="E47" t="s">
+        <v>120</v>
+      </c>
       <c r="F47">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -9706,6 +10223,9 @@
       </c>
       <c r="D48" t="s">
         <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>124</v>
       </c>
       <c r="F48">
         <v>5</v>
@@ -9724,6 +10244,9 @@
       <c r="D49" t="s">
         <v>15</v>
       </c>
+      <c r="E49" t="s">
+        <v>124</v>
+      </c>
       <c r="F49">
         <v>5</v>
       </c>
@@ -9741,6 +10264,9 @@
       <c r="D50" t="s">
         <v>15</v>
       </c>
+      <c r="E50" t="s">
+        <v>124</v>
+      </c>
       <c r="F50">
         <v>5</v>
       </c>
@@ -9758,6 +10284,9 @@
       <c r="D51" t="s">
         <v>15</v>
       </c>
+      <c r="E51" t="s">
+        <v>120</v>
+      </c>
       <c r="F51">
         <v>5</v>
       </c>
@@ -9775,6 +10304,9 @@
       <c r="D52" t="s">
         <v>15</v>
       </c>
+      <c r="E52" t="s">
+        <v>120</v>
+      </c>
       <c r="F52">
         <v>5</v>
       </c>
@@ -9792,6 +10324,9 @@
       <c r="D53" t="s">
         <v>15</v>
       </c>
+      <c r="E53" t="s">
+        <v>120</v>
+      </c>
       <c r="F53">
         <v>5</v>
       </c>
@@ -9809,6 +10344,9 @@
       <c r="D54" t="s">
         <v>15</v>
       </c>
+      <c r="E54" t="s">
+        <v>120</v>
+      </c>
       <c r="F54">
         <v>5</v>
       </c>
@@ -9826,6 +10364,9 @@
       <c r="D55" t="s">
         <v>15</v>
       </c>
+      <c r="E55" t="s">
+        <v>120</v>
+      </c>
       <c r="F55">
         <v>5</v>
       </c>
@@ -9842,6 +10383,9 @@
       </c>
       <c r="D56" t="s">
         <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>120</v>
       </c>
       <c r="F56">
         <v>5</v>
@@ -9856,7 +10400,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -9911,6 +10457,9 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
+      <c r="E2" t="s">
+        <v>131</v>
+      </c>
       <c r="F2">
         <v>6</v>
       </c>
@@ -9928,6 +10477,9 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
+      <c r="E3" t="s">
+        <v>131</v>
+      </c>
       <c r="F3">
         <v>6</v>
       </c>
@@ -9945,8 +10497,14 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
+      <c r="E4" t="s">
+        <v>131</v>
+      </c>
       <c r="F4">
         <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -9962,6 +10520,9 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
+      <c r="E5" t="s">
+        <v>124</v>
+      </c>
       <c r="F5">
         <v>6</v>
       </c>
@@ -9979,6 +10540,9 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
+      <c r="E6" t="s">
+        <v>119</v>
+      </c>
       <c r="F6">
         <v>6</v>
       </c>
@@ -9996,6 +10560,9 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
+      <c r="E7" t="s">
+        <v>131</v>
+      </c>
       <c r="F7">
         <v>6</v>
       </c>
@@ -10013,6 +10580,9 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
+      <c r="E8" t="s">
+        <v>131</v>
+      </c>
       <c r="F8">
         <v>6</v>
       </c>
@@ -10030,8 +10600,14 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
+      <c r="E9" t="s">
+        <v>131</v>
+      </c>
       <c r="F9">
         <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -10047,6 +10623,9 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
+      <c r="E10" t="s">
+        <v>131</v>
+      </c>
       <c r="F10">
         <v>6</v>
       </c>
@@ -10064,6 +10643,9 @@
       <c r="D11" t="s">
         <v>15</v>
       </c>
+      <c r="E11" t="s">
+        <v>131</v>
+      </c>
       <c r="F11">
         <v>6</v>
       </c>
@@ -10081,6 +10663,9 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
+      <c r="E12" t="s">
+        <v>116</v>
+      </c>
       <c r="F12">
         <v>6</v>
       </c>
@@ -10098,6 +10683,9 @@
       <c r="D13" t="s">
         <v>15</v>
       </c>
+      <c r="E13" t="s">
+        <v>116</v>
+      </c>
       <c r="F13">
         <v>6</v>
       </c>
@@ -10115,6 +10703,9 @@
       <c r="D14" t="s">
         <v>15</v>
       </c>
+      <c r="E14" t="s">
+        <v>116</v>
+      </c>
       <c r="F14">
         <v>6</v>
       </c>
@@ -10132,6 +10723,9 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
       <c r="F15">
         <v>6</v>
       </c>
@@ -10149,11 +10743,14 @@
       <c r="D16" t="s">
         <v>15</v>
       </c>
+      <c r="E16" t="s">
+        <v>116</v>
+      </c>
       <c r="F16">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -10166,11 +10763,14 @@
       <c r="D17" t="s">
         <v>15</v>
       </c>
+      <c r="E17" t="s">
+        <v>116</v>
+      </c>
       <c r="F17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -10183,11 +10783,14 @@
       <c r="D18" t="s">
         <v>15</v>
       </c>
+      <c r="E18" t="s">
+        <v>116</v>
+      </c>
       <c r="F18">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -10200,11 +10803,17 @@
       <c r="D19" t="s">
         <v>15</v>
       </c>
+      <c r="E19" t="s">
+        <v>116</v>
+      </c>
       <c r="F19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -10217,11 +10826,14 @@
       <c r="D20" t="s">
         <v>15</v>
       </c>
+      <c r="E20" t="s">
+        <v>116</v>
+      </c>
       <c r="F20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -10234,11 +10846,14 @@
       <c r="D21" t="s">
         <v>15</v>
       </c>
+      <c r="E21" t="s">
+        <v>122</v>
+      </c>
       <c r="F21">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -10251,11 +10866,14 @@
       <c r="D22" t="s">
         <v>15</v>
       </c>
+      <c r="E22" t="s">
+        <v>116</v>
+      </c>
       <c r="F22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -10268,11 +10886,14 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
+      <c r="E23" t="s">
+        <v>116</v>
+      </c>
       <c r="F23">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -10285,11 +10906,14 @@
       <c r="D24" t="s">
         <v>15</v>
       </c>
+      <c r="E24" t="s">
+        <v>116</v>
+      </c>
       <c r="F24">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -10302,11 +10926,14 @@
       <c r="D25" t="s">
         <v>15</v>
       </c>
+      <c r="E25" t="s">
+        <v>114</v>
+      </c>
       <c r="F25">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -10319,11 +10946,14 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
+      <c r="E26" t="s">
+        <v>114</v>
+      </c>
       <c r="F26">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -10336,11 +10966,14 @@
       <c r="D27" t="s">
         <v>15</v>
       </c>
+      <c r="E27" t="s">
+        <v>114</v>
+      </c>
       <c r="F27">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -10353,11 +10986,14 @@
       <c r="D28" t="s">
         <v>15</v>
       </c>
+      <c r="E28" t="s">
+        <v>114</v>
+      </c>
       <c r="F28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -10370,11 +11006,14 @@
       <c r="D29" t="s">
         <v>15</v>
       </c>
+      <c r="E29" t="s">
+        <v>114</v>
+      </c>
       <c r="F29">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -10387,11 +11026,14 @@
       <c r="D30" t="s">
         <v>15</v>
       </c>
+      <c r="E30" t="s">
+        <v>114</v>
+      </c>
       <c r="F30">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -10404,11 +11046,14 @@
       <c r="D31" t="s">
         <v>15</v>
       </c>
+      <c r="E31" t="s">
+        <v>114</v>
+      </c>
       <c r="F31">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -10421,11 +11066,14 @@
       <c r="D32" t="s">
         <v>15</v>
       </c>
+      <c r="E32" t="s">
+        <v>114</v>
+      </c>
       <c r="F32">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -10438,11 +11086,17 @@
       <c r="D33" t="s">
         <v>15</v>
       </c>
+      <c r="E33" t="s">
+        <v>114</v>
+      </c>
       <c r="F33">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -10455,11 +11109,14 @@
       <c r="D34" t="s">
         <v>15</v>
       </c>
+      <c r="E34" t="s">
+        <v>116</v>
+      </c>
       <c r="F34">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -10472,11 +11129,14 @@
       <c r="D35" t="s">
         <v>15</v>
       </c>
+      <c r="E35" t="s">
+        <v>116</v>
+      </c>
       <c r="F35">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -10489,11 +11149,14 @@
       <c r="D36" t="s">
         <v>15</v>
       </c>
+      <c r="E36" t="s">
+        <v>116</v>
+      </c>
       <c r="F36">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -10506,11 +11169,14 @@
       <c r="D37" t="s">
         <v>15</v>
       </c>
+      <c r="E37" t="s">
+        <v>116</v>
+      </c>
       <c r="F37">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -10523,11 +11189,14 @@
       <c r="D38" t="s">
         <v>15</v>
       </c>
+      <c r="E38" t="s">
+        <v>116</v>
+      </c>
       <c r="F38">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -10540,11 +11209,14 @@
       <c r="D39" t="s">
         <v>15</v>
       </c>
+      <c r="E39" t="s">
+        <v>116</v>
+      </c>
       <c r="F39">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -10557,11 +11229,14 @@
       <c r="D40" t="s">
         <v>15</v>
       </c>
+      <c r="E40" t="s">
+        <v>116</v>
+      </c>
       <c r="F40">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -10574,11 +11249,14 @@
       <c r="D41" t="s">
         <v>15</v>
       </c>
+      <c r="E41" t="s">
+        <v>114</v>
+      </c>
       <c r="F41">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -10591,11 +11269,14 @@
       <c r="D42" t="s">
         <v>15</v>
       </c>
+      <c r="E42" t="s">
+        <v>114</v>
+      </c>
       <c r="F42">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -10608,11 +11289,17 @@
       <c r="D43" t="s">
         <v>15</v>
       </c>
+      <c r="E43" t="s">
+        <v>114</v>
+      </c>
       <c r="F43">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -10625,11 +11312,14 @@
       <c r="D44" t="s">
         <v>15</v>
       </c>
+      <c r="E44" t="s">
+        <v>114</v>
+      </c>
       <c r="F44">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -10642,11 +11332,14 @@
       <c r="D45" t="s">
         <v>15</v>
       </c>
+      <c r="E45" t="s">
+        <v>114</v>
+      </c>
       <c r="F45">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -10659,11 +11352,14 @@
       <c r="D46" t="s">
         <v>15</v>
       </c>
+      <c r="E46" t="s">
+        <v>114</v>
+      </c>
       <c r="F46">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -10676,11 +11372,14 @@
       <c r="D47" t="s">
         <v>15</v>
       </c>
+      <c r="E47" t="s">
+        <v>114</v>
+      </c>
       <c r="F47">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -10693,11 +11392,14 @@
       <c r="D48" t="s">
         <v>15</v>
       </c>
+      <c r="E48" t="s">
+        <v>114</v>
+      </c>
       <c r="F48">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -10710,11 +11412,17 @@
       <c r="D49" t="s">
         <v>15</v>
       </c>
+      <c r="E49" t="s">
+        <v>117</v>
+      </c>
       <c r="F49">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -10727,11 +11435,14 @@
       <c r="D50" t="s">
         <v>15</v>
       </c>
+      <c r="E50" t="s">
+        <v>129</v>
+      </c>
       <c r="F50">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -10744,11 +11455,14 @@
       <c r="D51" t="s">
         <v>15</v>
       </c>
+      <c r="E51" t="s">
+        <v>114</v>
+      </c>
       <c r="F51">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>93</v>
       </c>
@@ -10761,11 +11475,14 @@
       <c r="D52" t="s">
         <v>15</v>
       </c>
+      <c r="E52" t="s">
+        <v>114</v>
+      </c>
       <c r="F52">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -10778,11 +11495,14 @@
       <c r="D53" t="s">
         <v>15</v>
       </c>
+      <c r="E53" t="s">
+        <v>114</v>
+      </c>
       <c r="F53">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -10795,11 +11515,14 @@
       <c r="D54" t="s">
         <v>15</v>
       </c>
+      <c r="E54" t="s">
+        <v>114</v>
+      </c>
       <c r="F54">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -10812,11 +11535,14 @@
       <c r="D55" t="s">
         <v>15</v>
       </c>
+      <c r="E55" t="s">
+        <v>114</v>
+      </c>
       <c r="F55">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>97</v>
       </c>
@@ -10828,6 +11554,9 @@
       </c>
       <c r="D56" t="s">
         <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>114</v>
       </c>
       <c r="F56">
         <v>6</v>
@@ -10842,7 +11571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45:I55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -10897,6 +11628,9 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
       <c r="F2">
         <v>7</v>
       </c>
@@ -10914,6 +11648,9 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
+      <c r="E3" t="s">
+        <v>127</v>
+      </c>
       <c r="F3">
         <v>7</v>
       </c>
@@ -10931,6 +11668,9 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
       <c r="F4">
         <v>7</v>
       </c>
@@ -10948,8 +11688,14 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
       <c r="F5">
         <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -10965,6 +11711,9 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
+      <c r="E6" t="s">
+        <v>112</v>
+      </c>
       <c r="F6">
         <v>7</v>
       </c>
@@ -10982,6 +11731,9 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
+      <c r="E7" t="s">
+        <v>112</v>
+      </c>
       <c r="F7">
         <v>7</v>
       </c>
@@ -10999,6 +11751,9 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
+      <c r="E8" t="s">
+        <v>112</v>
+      </c>
       <c r="F8">
         <v>7</v>
       </c>
@@ -11016,6 +11771,9 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
       <c r="F9">
         <v>7</v>
       </c>
@@ -11033,6 +11791,9 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
+      <c r="E10" t="s">
+        <v>126</v>
+      </c>
       <c r="F10">
         <v>7</v>
       </c>
@@ -11050,6 +11811,9 @@
       <c r="D11" t="s">
         <v>15</v>
       </c>
+      <c r="E11" t="s">
+        <v>126</v>
+      </c>
       <c r="F11">
         <v>7</v>
       </c>
@@ -11067,8 +11831,14 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
+      <c r="E12" t="s">
+        <v>126</v>
+      </c>
       <c r="F12">
         <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -11084,6 +11854,9 @@
       <c r="D13" t="s">
         <v>15</v>
       </c>
+      <c r="E13" t="s">
+        <v>113</v>
+      </c>
       <c r="F13">
         <v>7</v>
       </c>
@@ -11101,6 +11874,9 @@
       <c r="D14" t="s">
         <v>15</v>
       </c>
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
       <c r="F14">
         <v>7</v>
       </c>
@@ -11118,6 +11894,9 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
+      <c r="E15" t="s">
+        <v>113</v>
+      </c>
       <c r="F15">
         <v>7</v>
       </c>
@@ -11135,11 +11914,14 @@
       <c r="D16" t="s">
         <v>15</v>
       </c>
+      <c r="E16" t="s">
+        <v>113</v>
+      </c>
       <c r="F16">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -11152,11 +11934,14 @@
       <c r="D17" t="s">
         <v>15</v>
       </c>
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
       <c r="F17">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -11169,11 +11954,14 @@
       <c r="D18" t="s">
         <v>15</v>
       </c>
+      <c r="E18" t="s">
+        <v>113</v>
+      </c>
       <c r="F18">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -11186,11 +11974,14 @@
       <c r="D19" t="s">
         <v>15</v>
       </c>
+      <c r="E19" t="s">
+        <v>113</v>
+      </c>
       <c r="F19">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -11203,11 +11994,17 @@
       <c r="D20" t="s">
         <v>15</v>
       </c>
+      <c r="E20" t="s">
+        <v>113</v>
+      </c>
       <c r="F20">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -11220,11 +12017,14 @@
       <c r="D21" t="s">
         <v>15</v>
       </c>
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
       <c r="F21">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -11237,11 +12037,14 @@
       <c r="D22" t="s">
         <v>15</v>
       </c>
+      <c r="E22" t="s">
+        <v>113</v>
+      </c>
       <c r="F22">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -11254,11 +12057,14 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
+      <c r="E23" t="s">
+        <v>113</v>
+      </c>
       <c r="F23">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -11271,11 +12077,14 @@
       <c r="D24" t="s">
         <v>15</v>
       </c>
+      <c r="E24" t="s">
+        <v>113</v>
+      </c>
       <c r="F24">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -11288,11 +12097,14 @@
       <c r="D25" t="s">
         <v>15</v>
       </c>
+      <c r="E25" t="s">
+        <v>113</v>
+      </c>
       <c r="F25">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -11305,11 +12117,14 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
+      <c r="E26" t="s">
+        <v>113</v>
+      </c>
       <c r="F26">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -11322,11 +12137,14 @@
       <c r="D27" t="s">
         <v>15</v>
       </c>
+      <c r="E27" t="s">
+        <v>113</v>
+      </c>
       <c r="F27">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -11339,11 +12157,14 @@
       <c r="D28" t="s">
         <v>15</v>
       </c>
+      <c r="E28" t="s">
+        <v>113</v>
+      </c>
       <c r="F28">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -11356,11 +12177,14 @@
       <c r="D29" t="s">
         <v>15</v>
       </c>
+      <c r="E29" t="s">
+        <v>113</v>
+      </c>
       <c r="F29">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -11373,11 +12197,14 @@
       <c r="D30" t="s">
         <v>15</v>
       </c>
+      <c r="E30" t="s">
+        <v>113</v>
+      </c>
       <c r="F30">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -11390,11 +12217,14 @@
       <c r="D31" t="s">
         <v>15</v>
       </c>
+      <c r="E31" t="s">
+        <v>113</v>
+      </c>
       <c r="F31">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -11406,6 +12236,9 @@
       </c>
       <c r="D32" t="s">
         <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>113</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -11424,6 +12257,9 @@
       <c r="D33" t="s">
         <v>15</v>
       </c>
+      <c r="E33" t="s">
+        <v>113</v>
+      </c>
       <c r="F33">
         <v>7</v>
       </c>
@@ -11441,6 +12277,9 @@
       <c r="D34" t="s">
         <v>15</v>
       </c>
+      <c r="E34" t="s">
+        <v>113</v>
+      </c>
       <c r="F34">
         <v>7</v>
       </c>
@@ -11458,6 +12297,9 @@
       <c r="D35" t="s">
         <v>15</v>
       </c>
+      <c r="E35" t="s">
+        <v>113</v>
+      </c>
       <c r="F35">
         <v>7</v>
       </c>
@@ -11475,6 +12317,9 @@
       <c r="D36" t="s">
         <v>15</v>
       </c>
+      <c r="E36" t="s">
+        <v>113</v>
+      </c>
       <c r="F36">
         <v>7</v>
       </c>
@@ -11492,6 +12337,9 @@
       <c r="D37" t="s">
         <v>15</v>
       </c>
+      <c r="E37" t="s">
+        <v>113</v>
+      </c>
       <c r="F37">
         <v>7</v>
       </c>
@@ -11509,6 +12357,9 @@
       <c r="D38" t="s">
         <v>15</v>
       </c>
+      <c r="E38" t="s">
+        <v>113</v>
+      </c>
       <c r="F38">
         <v>7</v>
       </c>
@@ -11526,6 +12377,9 @@
       <c r="D39" t="s">
         <v>15</v>
       </c>
+      <c r="E39" t="s">
+        <v>127</v>
+      </c>
       <c r="F39">
         <v>7</v>
       </c>
@@ -11543,6 +12397,9 @@
       <c r="D40" t="s">
         <v>15</v>
       </c>
+      <c r="E40" t="s">
+        <v>117</v>
+      </c>
       <c r="F40">
         <v>7</v>
       </c>
@@ -11560,6 +12417,9 @@
       <c r="D41" t="s">
         <v>15</v>
       </c>
+      <c r="E41" t="s">
+        <v>127</v>
+      </c>
       <c r="F41">
         <v>7</v>
       </c>
@@ -11577,6 +12437,9 @@
       <c r="D42" t="s">
         <v>15</v>
       </c>
+      <c r="E42" t="s">
+        <v>127</v>
+      </c>
       <c r="F42">
         <v>7</v>
       </c>
@@ -11594,6 +12457,9 @@
       <c r="D43" t="s">
         <v>15</v>
       </c>
+      <c r="E43" t="s">
+        <v>127</v>
+      </c>
       <c r="F43">
         <v>7</v>
       </c>
@@ -11611,6 +12477,9 @@
       <c r="D44" t="s">
         <v>15</v>
       </c>
+      <c r="E44" t="s">
+        <v>127</v>
+      </c>
       <c r="F44">
         <v>7</v>
       </c>
@@ -11628,6 +12497,9 @@
       <c r="D45" t="s">
         <v>15</v>
       </c>
+      <c r="E45" t="s">
+        <v>127</v>
+      </c>
       <c r="F45">
         <v>7</v>
       </c>
@@ -11645,6 +12517,9 @@
       <c r="D46" t="s">
         <v>15</v>
       </c>
+      <c r="E46" t="s">
+        <v>127</v>
+      </c>
       <c r="F46">
         <v>7</v>
       </c>
@@ -11662,6 +12537,9 @@
       <c r="D47" t="s">
         <v>15</v>
       </c>
+      <c r="E47" t="s">
+        <v>127</v>
+      </c>
       <c r="F47">
         <v>7</v>
       </c>
@@ -11679,11 +12557,14 @@
       <c r="D48" t="s">
         <v>15</v>
       </c>
+      <c r="E48" t="s">
+        <v>113</v>
+      </c>
       <c r="F48">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -11696,11 +12577,14 @@
       <c r="D49" t="s">
         <v>15</v>
       </c>
+      <c r="E49" t="s">
+        <v>127</v>
+      </c>
       <c r="F49">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -11713,11 +12597,17 @@
       <c r="D50" t="s">
         <v>15</v>
       </c>
+      <c r="E50" t="s">
+        <v>122</v>
+      </c>
       <c r="F50">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -11730,11 +12620,14 @@
       <c r="D51" t="s">
         <v>15</v>
       </c>
+      <c r="E51" t="s">
+        <v>113</v>
+      </c>
       <c r="F51">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>93</v>
       </c>
@@ -11747,11 +12640,14 @@
       <c r="D52" t="s">
         <v>15</v>
       </c>
+      <c r="E52" t="s">
+        <v>113</v>
+      </c>
       <c r="F52">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -11764,11 +12660,14 @@
       <c r="D53" t="s">
         <v>15</v>
       </c>
+      <c r="E53" t="s">
+        <v>113</v>
+      </c>
       <c r="F53">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -11781,11 +12680,17 @@
       <c r="D54" t="s">
         <v>15</v>
       </c>
+      <c r="E54" t="s">
+        <v>113</v>
+      </c>
       <c r="F54">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -11798,11 +12703,14 @@
       <c r="D55" t="s">
         <v>15</v>
       </c>
+      <c r="E55" t="s">
+        <v>127</v>
+      </c>
       <c r="F55">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>97</v>
       </c>
@@ -11814,6 +12722,9 @@
       </c>
       <c r="D56" t="s">
         <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>113</v>
       </c>
       <c r="F56">
         <v>7</v>
@@ -11828,7 +12739,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -11883,6 +12796,9 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
+      <c r="E2" t="s">
+        <v>122</v>
+      </c>
       <c r="F2">
         <v>8</v>
       </c>
@@ -11900,6 +12816,9 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
       <c r="F3">
         <v>8</v>
       </c>
@@ -11917,6 +12836,9 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
+      <c r="E4" t="s">
+        <v>122</v>
+      </c>
       <c r="F4">
         <v>8</v>
       </c>
@@ -11934,6 +12856,9 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
+      <c r="E5" t="s">
+        <v>122</v>
+      </c>
       <c r="F5">
         <v>8</v>
       </c>
@@ -11951,8 +12876,14 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
       <c r="F6">
         <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -11968,6 +12899,9 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
       <c r="F7">
         <v>8</v>
       </c>
@@ -11985,6 +12919,9 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
+      <c r="E8" t="s">
+        <v>122</v>
+      </c>
       <c r="F8">
         <v>8</v>
       </c>
@@ -12002,6 +12939,9 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
+      <c r="E9" t="s">
+        <v>122</v>
+      </c>
       <c r="F9">
         <v>8</v>
       </c>
@@ -12019,6 +12959,9 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
+      <c r="E10" t="s">
+        <v>122</v>
+      </c>
       <c r="F10">
         <v>8</v>
       </c>
@@ -12036,6 +12979,9 @@
       <c r="D11" t="s">
         <v>15</v>
       </c>
+      <c r="E11" t="s">
+        <v>122</v>
+      </c>
       <c r="F11">
         <v>8</v>
       </c>
@@ -12053,6 +12999,9 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
+      <c r="E12" t="s">
+        <v>122</v>
+      </c>
       <c r="F12">
         <v>8</v>
       </c>
@@ -12070,6 +13019,9 @@
       <c r="D13" t="s">
         <v>15</v>
       </c>
+      <c r="E13" t="s">
+        <v>122</v>
+      </c>
       <c r="F13">
         <v>8</v>
       </c>
@@ -12087,6 +13039,9 @@
       <c r="D14" t="s">
         <v>15</v>
       </c>
+      <c r="E14" t="s">
+        <v>122</v>
+      </c>
       <c r="F14">
         <v>8</v>
       </c>
@@ -12104,6 +13059,9 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
+      <c r="E15" t="s">
+        <v>120</v>
+      </c>
       <c r="F15">
         <v>8</v>
       </c>
@@ -12121,6 +13079,9 @@
       <c r="D16" t="s">
         <v>15</v>
       </c>
+      <c r="E16" t="s">
+        <v>120</v>
+      </c>
       <c r="F16">
         <v>8</v>
       </c>
@@ -12138,6 +13099,9 @@
       <c r="D17" t="s">
         <v>15</v>
       </c>
+      <c r="E17" t="s">
+        <v>120</v>
+      </c>
       <c r="F17">
         <v>8</v>
       </c>
@@ -12155,6 +13119,9 @@
       <c r="D18" t="s">
         <v>15</v>
       </c>
+      <c r="E18" t="s">
+        <v>120</v>
+      </c>
       <c r="F18">
         <v>8</v>
       </c>
@@ -12172,6 +13139,9 @@
       <c r="D19" t="s">
         <v>15</v>
       </c>
+      <c r="E19" t="s">
+        <v>120</v>
+      </c>
       <c r="F19">
         <v>8</v>
       </c>
@@ -12189,6 +13159,9 @@
       <c r="D20" t="s">
         <v>15</v>
       </c>
+      <c r="E20" t="s">
+        <v>120</v>
+      </c>
       <c r="F20">
         <v>8</v>
       </c>
@@ -12206,6 +13179,9 @@
       <c r="D21" t="s">
         <v>15</v>
       </c>
+      <c r="E21" t="s">
+        <v>120</v>
+      </c>
       <c r="F21">
         <v>8</v>
       </c>
@@ -12223,6 +13199,9 @@
       <c r="D22" t="s">
         <v>15</v>
       </c>
+      <c r="E22" t="s">
+        <v>120</v>
+      </c>
       <c r="F22">
         <v>8</v>
       </c>
@@ -12240,6 +13219,9 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
+      <c r="E23" t="s">
+        <v>120</v>
+      </c>
       <c r="F23">
         <v>8</v>
       </c>
@@ -12257,6 +13239,9 @@
       <c r="D24" t="s">
         <v>15</v>
       </c>
+      <c r="E24" t="s">
+        <v>120</v>
+      </c>
       <c r="F24">
         <v>8</v>
       </c>
@@ -12274,6 +13259,9 @@
       <c r="D25" t="s">
         <v>15</v>
       </c>
+      <c r="E25" t="s">
+        <v>120</v>
+      </c>
       <c r="F25">
         <v>8</v>
       </c>
@@ -12291,6 +13279,9 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
+      <c r="E26" t="s">
+        <v>120</v>
+      </c>
       <c r="F26">
         <v>8</v>
       </c>
@@ -12308,6 +13299,9 @@
       <c r="D27" t="s">
         <v>15</v>
       </c>
+      <c r="E27" t="s">
+        <v>120</v>
+      </c>
       <c r="F27">
         <v>8</v>
       </c>
@@ -12325,6 +13319,9 @@
       <c r="D28" t="s">
         <v>15</v>
       </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
       <c r="F28">
         <v>8</v>
       </c>
@@ -12342,6 +13339,9 @@
       <c r="D29" t="s">
         <v>15</v>
       </c>
+      <c r="E29" t="s">
+        <v>120</v>
+      </c>
       <c r="F29">
         <v>8</v>
       </c>
@@ -12359,6 +13359,9 @@
       <c r="D30" t="s">
         <v>15</v>
       </c>
+      <c r="E30" t="s">
+        <v>120</v>
+      </c>
       <c r="F30">
         <v>8</v>
       </c>
@@ -12376,6 +13379,9 @@
       <c r="D31" t="s">
         <v>15</v>
       </c>
+      <c r="E31" t="s">
+        <v>120</v>
+      </c>
       <c r="F31">
         <v>8</v>
       </c>
@@ -12393,11 +13399,14 @@
       <c r="D32" t="s">
         <v>15</v>
       </c>
+      <c r="E32" t="s">
+        <v>120</v>
+      </c>
       <c r="F32">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -12410,11 +13419,14 @@
       <c r="D33" t="s">
         <v>15</v>
       </c>
+      <c r="E33" t="s">
+        <v>120</v>
+      </c>
       <c r="F33">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -12427,11 +13439,14 @@
       <c r="D34" t="s">
         <v>15</v>
       </c>
+      <c r="E34" t="s">
+        <v>120</v>
+      </c>
       <c r="F34">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -12444,11 +13459,14 @@
       <c r="D35" t="s">
         <v>15</v>
       </c>
+      <c r="E35" t="s">
+        <v>120</v>
+      </c>
       <c r="F35">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -12461,11 +13479,14 @@
       <c r="D36" t="s">
         <v>15</v>
       </c>
+      <c r="E36" t="s">
+        <v>122</v>
+      </c>
       <c r="F36">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -12478,11 +13499,14 @@
       <c r="D37" t="s">
         <v>15</v>
       </c>
+      <c r="E37" t="s">
+        <v>122</v>
+      </c>
       <c r="F37">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -12495,11 +13519,17 @@
       <c r="D38" t="s">
         <v>15</v>
       </c>
+      <c r="E38" t="s">
+        <v>122</v>
+      </c>
       <c r="F38">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -12512,11 +13542,17 @@
       <c r="D39" t="s">
         <v>15</v>
       </c>
+      <c r="E39" t="s">
+        <v>122</v>
+      </c>
       <c r="F39">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -12529,11 +13565,14 @@
       <c r="D40" t="s">
         <v>15</v>
       </c>
+      <c r="E40" t="s">
+        <v>114</v>
+      </c>
       <c r="F40">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -12546,11 +13585,14 @@
       <c r="D41" t="s">
         <v>15</v>
       </c>
+      <c r="E41" t="s">
+        <v>114</v>
+      </c>
       <c r="F41">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -12563,11 +13605,14 @@
       <c r="D42" t="s">
         <v>15</v>
       </c>
+      <c r="E42" t="s">
+        <v>122</v>
+      </c>
       <c r="F42">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -12580,11 +13625,14 @@
       <c r="D43" t="s">
         <v>15</v>
       </c>
+      <c r="E43" t="s">
+        <v>122</v>
+      </c>
       <c r="F43">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -12597,11 +13645,14 @@
       <c r="D44" t="s">
         <v>15</v>
       </c>
+      <c r="E44" t="s">
+        <v>122</v>
+      </c>
       <c r="F44">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -12614,11 +13665,14 @@
       <c r="D45" t="s">
         <v>15</v>
       </c>
+      <c r="E45" t="s">
+        <v>122</v>
+      </c>
       <c r="F45">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -12631,11 +13685,14 @@
       <c r="D46" t="s">
         <v>15</v>
       </c>
+      <c r="E46" t="s">
+        <v>122</v>
+      </c>
       <c r="F46">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -12648,11 +13705,14 @@
       <c r="D47" t="s">
         <v>15</v>
       </c>
+      <c r="E47" t="s">
+        <v>122</v>
+      </c>
       <c r="F47">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -12665,11 +13725,17 @@
       <c r="D48" t="s">
         <v>15</v>
       </c>
+      <c r="E48" t="s">
+        <v>127</v>
+      </c>
       <c r="F48">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -12682,11 +13748,14 @@
       <c r="D49" t="s">
         <v>15</v>
       </c>
+      <c r="E49" t="s">
+        <v>122</v>
+      </c>
       <c r="F49">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -12699,11 +13768,14 @@
       <c r="D50" t="s">
         <v>15</v>
       </c>
+      <c r="E50" t="s">
+        <v>116</v>
+      </c>
       <c r="F50">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -12716,11 +13788,14 @@
       <c r="D51" t="s">
         <v>15</v>
       </c>
+      <c r="E51" t="s">
+        <v>116</v>
+      </c>
       <c r="F51">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>93</v>
       </c>
@@ -12733,11 +13808,17 @@
       <c r="D52" t="s">
         <v>15</v>
       </c>
+      <c r="E52" t="s">
+        <v>127</v>
+      </c>
       <c r="F52">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -12750,11 +13831,14 @@
       <c r="D53" t="s">
         <v>15</v>
       </c>
+      <c r="E53" t="s">
+        <v>116</v>
+      </c>
       <c r="F53">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -12767,11 +13851,14 @@
       <c r="D54" t="s">
         <v>15</v>
       </c>
+      <c r="E54" t="s">
+        <v>116</v>
+      </c>
       <c r="F54">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -12784,11 +13871,14 @@
       <c r="D55" t="s">
         <v>15</v>
       </c>
+      <c r="E55" t="s">
+        <v>116</v>
+      </c>
       <c r="F55">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>97</v>
       </c>
@@ -12800,6 +13890,9 @@
       </c>
       <c r="D56" t="s">
         <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>116</v>
       </c>
       <c r="F56">
         <v>8</v>
@@ -12814,12 +13907,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -12857,7 +13956,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
@@ -12869,12 +13968,15 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
       <c r="F2">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
@@ -12886,12 +13988,18 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
       <c r="F3">
         <v>9</v>
       </c>
+      <c r="G3" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
@@ -12903,12 +14011,15 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
       <c r="F4">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
@@ -12920,12 +14031,15 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
       <c r="F5">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B6" t="s">
@@ -12937,12 +14051,15 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
       <c r="F6">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B7" t="s">
@@ -12954,12 +14071,15 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
+      <c r="E7" t="s">
+        <v>108</v>
+      </c>
       <c r="F7">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B8" t="s">
@@ -12971,12 +14091,15 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
       <c r="F8">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B9" t="s">
@@ -12988,12 +14111,15 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
       <c r="F9">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B10" t="s">
@@ -13005,12 +14131,15 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
+      <c r="E10" t="s">
+        <v>108</v>
+      </c>
       <c r="F10">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B11" t="s">
@@ -13022,12 +14151,15 @@
       <c r="D11" t="s">
         <v>15</v>
       </c>
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
       <c r="F11">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B12" t="s">
@@ -13039,12 +14171,15 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
       <c r="F12">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B13" t="s">
@@ -13056,12 +14191,15 @@
       <c r="D13" t="s">
         <v>15</v>
       </c>
+      <c r="E13" t="s">
+        <v>108</v>
+      </c>
       <c r="F13">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B14" t="s">
@@ -13073,12 +14211,15 @@
       <c r="D14" t="s">
         <v>15</v>
       </c>
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
       <c r="F14">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B15" t="s">
@@ -13090,12 +14231,15 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
       <c r="F15">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B16" t="s">
@@ -13107,12 +14251,15 @@
       <c r="D16" t="s">
         <v>15</v>
       </c>
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
       <c r="F16">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B17" t="s">
@@ -13124,12 +14271,15 @@
       <c r="D17" t="s">
         <v>15</v>
       </c>
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
       <c r="F17">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B18" t="s">
@@ -13141,12 +14291,15 @@
       <c r="D18" t="s">
         <v>15</v>
       </c>
+      <c r="E18" t="s">
+        <v>108</v>
+      </c>
       <c r="F18">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B19" t="s">
@@ -13158,12 +14311,15 @@
       <c r="D19" t="s">
         <v>15</v>
       </c>
+      <c r="E19" t="s">
+        <v>108</v>
+      </c>
       <c r="F19">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B20" t="s">
@@ -13175,12 +14331,15 @@
       <c r="D20" t="s">
         <v>15</v>
       </c>
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
       <c r="F20">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B21" t="s">
@@ -13192,12 +14351,15 @@
       <c r="D21" t="s">
         <v>15</v>
       </c>
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
       <c r="F21">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B22" t="s">
@@ -13209,12 +14371,15 @@
       <c r="D22" t="s">
         <v>15</v>
       </c>
+      <c r="E22" t="s">
+        <v>108</v>
+      </c>
       <c r="F22">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B23" t="s">
@@ -13226,12 +14391,15 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
       <c r="F23">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B24" t="s">
@@ -13243,12 +14411,15 @@
       <c r="D24" t="s">
         <v>15</v>
       </c>
+      <c r="E24" t="s">
+        <v>108</v>
+      </c>
       <c r="F24">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B25" t="s">
@@ -13260,12 +14431,15 @@
       <c r="D25" t="s">
         <v>15</v>
       </c>
+      <c r="E25" t="s">
+        <v>124</v>
+      </c>
       <c r="F25">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B26" t="s">
@@ -13277,12 +14451,15 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
       <c r="F26">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B27" t="s">
@@ -13294,12 +14471,15 @@
       <c r="D27" t="s">
         <v>15</v>
       </c>
+      <c r="E27" t="s">
+        <v>108</v>
+      </c>
       <c r="F27">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B28" t="s">
@@ -13311,12 +14491,15 @@
       <c r="D28" t="s">
         <v>15</v>
       </c>
+      <c r="E28" t="s">
+        <v>108</v>
+      </c>
       <c r="F28">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B29" t="s">
@@ -13328,12 +14511,15 @@
       <c r="D29" t="s">
         <v>15</v>
       </c>
+      <c r="E29" t="s">
+        <v>108</v>
+      </c>
       <c r="F29">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B30" t="s">
@@ -13345,12 +14531,15 @@
       <c r="D30" t="s">
         <v>15</v>
       </c>
+      <c r="E30" t="s">
+        <v>116</v>
+      </c>
       <c r="F30">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B31" t="s">
@@ -13362,12 +14551,15 @@
       <c r="D31" t="s">
         <v>15</v>
       </c>
+      <c r="E31" t="s">
+        <v>116</v>
+      </c>
       <c r="F31">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B32" t="s">
@@ -13379,12 +14571,15 @@
       <c r="D32" t="s">
         <v>15</v>
       </c>
+      <c r="E32" t="s">
+        <v>108</v>
+      </c>
       <c r="F32">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B33" t="s">
@@ -13396,46 +14591,55 @@
       <c r="D33" t="s">
         <v>15</v>
       </c>
+      <c r="E33" t="s">
+        <v>108</v>
+      </c>
       <c r="F33">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>72</v>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>31432</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>108</v>
       </c>
       <c r="F34">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>73</v>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>121</v>
       </c>
       <c r="F35">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B36" t="s">
@@ -13447,12 +14651,15 @@
       <c r="D36" t="s">
         <v>15</v>
       </c>
+      <c r="E36" t="s">
+        <v>121</v>
+      </c>
       <c r="F36">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B37" t="s">
@@ -13464,12 +14671,15 @@
       <c r="D37" t="s">
         <v>15</v>
       </c>
+      <c r="E37" t="s">
+        <v>121</v>
+      </c>
       <c r="F37">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B38" t="s">
@@ -13481,12 +14691,15 @@
       <c r="D38" t="s">
         <v>15</v>
       </c>
+      <c r="E38" t="s">
+        <v>108</v>
+      </c>
       <c r="F38">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B39" t="s">
@@ -13498,12 +14711,15 @@
       <c r="D39" t="s">
         <v>15</v>
       </c>
+      <c r="E39" t="s">
+        <v>121</v>
+      </c>
       <c r="F39">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B40" t="s">
@@ -13515,12 +14731,15 @@
       <c r="D40" t="s">
         <v>15</v>
       </c>
+      <c r="E40" t="s">
+        <v>108</v>
+      </c>
       <c r="F40">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B41" t="s">
@@ -13532,12 +14751,15 @@
       <c r="D41" t="s">
         <v>15</v>
       </c>
+      <c r="E41" t="s">
+        <v>124</v>
+      </c>
       <c r="F41">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B42" t="s">
@@ -13549,12 +14771,18 @@
       <c r="D42" t="s">
         <v>15</v>
       </c>
+      <c r="E42" t="s">
+        <v>124</v>
+      </c>
       <c r="F42">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="G42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B43" t="s">
@@ -13566,12 +14794,18 @@
       <c r="D43" t="s">
         <v>15</v>
       </c>
+      <c r="E43" t="s">
+        <v>121</v>
+      </c>
       <c r="F43">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="G43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B44" t="s">
@@ -13583,12 +14817,15 @@
       <c r="D44" t="s">
         <v>15</v>
       </c>
+      <c r="E44" t="s">
+        <v>108</v>
+      </c>
       <c r="F44">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B45" t="s">
@@ -13600,12 +14837,15 @@
       <c r="D45" t="s">
         <v>15</v>
       </c>
+      <c r="E45" t="s">
+        <v>108</v>
+      </c>
       <c r="F45">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B46" t="s">
@@ -13617,12 +14857,15 @@
       <c r="D46" t="s">
         <v>15</v>
       </c>
+      <c r="E46" t="s">
+        <v>108</v>
+      </c>
       <c r="F46">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B47" t="s">
@@ -13634,12 +14877,15 @@
       <c r="D47" t="s">
         <v>15</v>
       </c>
+      <c r="E47" t="s">
+        <v>108</v>
+      </c>
       <c r="F47">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B48" t="s">
@@ -13651,12 +14897,15 @@
       <c r="D48" t="s">
         <v>15</v>
       </c>
+      <c r="E48" t="s">
+        <v>108</v>
+      </c>
       <c r="F48">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B49" t="s">
@@ -13668,12 +14917,15 @@
       <c r="D49" t="s">
         <v>15</v>
       </c>
+      <c r="E49" t="s">
+        <v>108</v>
+      </c>
       <c r="F49">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B50" t="s">
@@ -13685,12 +14937,15 @@
       <c r="D50" t="s">
         <v>15</v>
       </c>
+      <c r="E50" t="s">
+        <v>121</v>
+      </c>
       <c r="F50">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B51" t="s">
@@ -13702,12 +14957,15 @@
       <c r="D51" t="s">
         <v>15</v>
       </c>
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
       <c r="F51">
         <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B52" t="s">
@@ -13719,12 +14977,15 @@
       <c r="D52" t="s">
         <v>15</v>
       </c>
+      <c r="E52" t="s">
+        <v>108</v>
+      </c>
       <c r="F52">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B53" t="s">
@@ -13736,12 +14997,15 @@
       <c r="D53" t="s">
         <v>15</v>
       </c>
+      <c r="E53" t="s">
+        <v>108</v>
+      </c>
       <c r="F53">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B54" t="s">
@@ -13753,12 +15017,15 @@
       <c r="D54" t="s">
         <v>15</v>
       </c>
+      <c r="E54" t="s">
+        <v>108</v>
+      </c>
       <c r="F54">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B55" t="s">
@@ -13770,12 +15037,15 @@
       <c r="D55" t="s">
         <v>15</v>
       </c>
+      <c r="E55" t="s">
+        <v>108</v>
+      </c>
       <c r="F55">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B56" t="s">
@@ -13787,11 +15057,17 @@
       <c r="D56" t="s">
         <v>15</v>
       </c>
+      <c r="E56" t="s">
+        <v>108</v>
+      </c>
       <c r="F56">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F56">
+    <sortCondition ref="A2:A56"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>